--- a/data/crusader_quest_DB_150604.xlsx
+++ b/data/crusader_quest_DB_150604.xlsx
@@ -1067,9 +1067,6 @@
     <t>(주력형) : 기마돌진 중에는 자신이 받는 피해가 50% 감소합니다. 또한 기마돌진 중 사용하는 다른 아군의 블록은 2회에 한해 3-체인으로 발동됩니다. 기마돌진은 멈출 수 없습니다.</t>
   </si>
   <si>
-    <t>(주력형) : 세 개 연결된 깃털 퍼붓기(3-체인)를 사용하면, 공격력의 100%만큼 피해를 주는 마법 화살 일곱 개가 적을 공격합니다. 이 화살의 치명타 확률이 25% 증가합니다.</t>
-  </si>
-  <si>
     <t>(주력형) : 3-체인을 사용하면, 다음 스킬은 치명타 확률이 50%만큼, 치명타 피해량이 75%만큼 증가합니다.</t>
   </si>
   <si>
@@ -3259,9 +3256,6 @@
     <t>항해의 기본</t>
   </si>
   <si>
-    <t>(보조형) : 블록을 사용하면 5초간 아군 전체의 치명타 확률이 자신의 치명타 확률만큼 증가합니다. 효과 도중 아군의 3-체인 공격이 치명타로 적중되면, 아군 전체에 자기 체력의 50%만큼 피해를 흡수하는 보호막을 걸어줍니다. (2초에 1회 발동)</t>
-  </si>
-  <si>
     <t>파멸의 기둥</t>
   </si>
   <si>
@@ -3433,18 +3427,12 @@
     <t>체인 수에 따라 공격력의 150%만큼 마법 피해를 주는 (늑대/늑대/물소)를 불러 공격합니다. 각 야수는 5초간 대상의 (공격속도/공격력/방어력)을 15% 감소시킵니다.</t>
   </si>
   <si>
-    <t>(보조형) : 다른 아군의 3-체인 뒤에 사용하는 블록은 1회에 한해 모든 야수들을 부르고, 야수들의 공격력과 효과가 50% 증가합니다.</t>
-  </si>
-  <si>
     <t>img/hero/thum/nazrune.png</t>
   </si>
   <si>
     <t>강령술사 네크론</t>
   </si>
   <si>
-    <t xml:space="preserve">(주력형) : 자신의 체인에 따라, 소환수에게 (5초간 체력 50% 회복 및 피해 대신 받음 / 다음 2회 스킬 공격력 30% 증가 / 공격력의 120%만큼 마법 피해) 행동을 명령합니다. </t>
-  </si>
-  <si>
     <t>img/hero/thum/necron.png</t>
   </si>
   <si>
@@ -3463,9 +3451,6 @@
     <t>여신의 종소리</t>
   </si>
   <si>
-    <t>(주력형) : 3-체인을 사용하면, 자신을 제외한, 회복 받은 용사의 블록을 65% 확률로 즉시 생성시키고, 다음 사용하는 자신의 회복 스킬의 회복량을 50% 증가시킵니다. (회복량 증가는 2초에 1회만 적용)</t>
-  </si>
-  <si>
     <t>간호사 출동!</t>
   </si>
   <si>
@@ -3846,6 +3831,26 @@
   </si>
   <si>
     <t>img/hero/block/kano_block.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주력형) : 3-체인을 사용하면, 자신을 제외한, 회복 받은 용사의 블록을 65% 확률로 즉시 생성시키고, 다음 사용하는 자신의 회복 스킬은 1회에 한해 대상 최대 체력의 5%만큼 추가 회복시킵니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 블록을 사용하면 5초간 아군 전체의 치명타 확률이 자신의 치명타 확률의 50%만큼 증가합니다. 효과 도중 아군의 3-체인 공격이 치명타로 적중되면, 아군 전체에 자기 체력의 50%만큼 피해를 흡수하는 보호막을 걸어줍니다. (2초에 1회 발동)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주력형) : 세 개 연결된 깃털 퍼붓기를 사용하면, 공격력의 100%만큼 피해를 주는 마법 화살 일곱 개가 적을 공격합니다. 이 화살의 치명타 확률이 25% 증가합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 다른 아군의 3-체인 뒤에 사용하는 블록은 1회에 한해 모든 야수들을 부르고, 야수들이 주는 해로운 효과의 효과량이 50% 증가합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주력형) : 자신의 체인에 따라, 소환수에게 (5초간 체력 50% 회복 및 피해 대신 받음 / 다음 2회 스킬 공격력 30% 증가 / 공격력의 120%만큼 마법 피해) 행동을 명령합니다. 두 번째 명령은 피해 및 효과량이 50% 증가합니다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3853,7 +3858,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4017,20 +4022,27 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="나눔고딕_코딩"/>
+      <name val="나눔고딕코딩"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕_코딩"/>
+      <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="나눔고딕_코딩"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -4460,26 +4472,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4487,6 +4499,9 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4832,11 +4847,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -4853,7 +4868,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>280</v>
@@ -4865,10 +4880,10 @@
         <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>283</v>
@@ -4900,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -4924,7 +4939,7 @@
         <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
@@ -4933,18 +4948,18 @@
         <v>293</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -4968,19 +4983,19 @@
         <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4988,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -5012,7 +5027,7 @@
         <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>6</v>
@@ -5021,10 +5036,10 @@
         <v>294</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -5032,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -5056,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
@@ -5065,10 +5080,10 @@
         <v>295</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -5076,7 +5091,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -5103,19 +5118,19 @@
         <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -5123,7 +5138,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -5147,19 +5162,19 @@
         <v>44</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -5167,7 +5182,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -5191,7 +5206,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -5200,10 +5215,10 @@
         <v>296</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -5211,7 +5226,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -5238,19 +5253,19 @@
         <v>44</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -5258,7 +5273,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -5285,7 +5300,7 @@
         <v>46</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>76</v>
@@ -5297,15 +5312,15 @@
         <v>17</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
@@ -5329,27 +5344,27 @@
         <v>44</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>884</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>1</v>
@@ -5376,19 +5391,19 @@
         <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -5396,7 +5411,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -5420,7 +5435,7 @@
         <v>284</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
@@ -5429,18 +5444,18 @@
         <v>298</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -5464,19 +5479,19 @@
         <v>284</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -5484,7 +5499,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
@@ -5508,19 +5523,19 @@
         <v>321</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -5528,7 +5543,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -5552,7 +5567,7 @@
         <v>247</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>24</v>
@@ -5561,10 +5576,10 @@
         <v>299</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -5572,7 +5587,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
@@ -5596,19 +5611,19 @@
         <v>247</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -5616,7 +5631,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
@@ -5640,19 +5655,19 @@
         <v>247</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>897</v>
+        <v>1081</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -5660,7 +5675,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>1</v>
@@ -5687,19 +5702,19 @@
         <v>247</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -5707,7 +5722,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>1</v>
@@ -5734,7 +5749,7 @@
         <v>148</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>77</v>
@@ -5743,10 +5758,10 @@
         <v>300</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -5754,7 +5769,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>1</v>
@@ -5781,7 +5796,7 @@
         <v>260</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>78</v>
@@ -5793,15 +5808,15 @@
         <v>33</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -5825,27 +5840,27 @@
         <v>432</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>906</v>
-      </c>
       <c r="O23" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>1</v>
@@ -5872,19 +5887,19 @@
         <v>247</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>860</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -5892,7 +5907,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
@@ -5916,19 +5931,19 @@
         <v>167</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>302</v>
+        <v>1082</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -5936,7 +5951,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>1</v>
@@ -5963,19 +5978,19 @@
         <v>188</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -5983,7 +5998,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D28" s="1">
         <v>6</v>
@@ -6007,19 +6022,19 @@
         <v>145</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -6027,7 +6042,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
@@ -6051,19 +6066,19 @@
         <v>145</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -6071,7 +6086,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -6095,19 +6110,19 @@
         <v>145</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -6115,7 +6130,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -6139,19 +6154,19 @@
         <v>145</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -6159,7 +6174,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C32" s="1" t="b">
         <v>1</v>
@@ -6186,19 +6201,19 @@
         <v>152</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -6206,7 +6221,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>1</v>
@@ -6233,27 +6248,27 @@
         <v>152</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -6277,19 +6292,19 @@
         <v>145</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="O34" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -6297,7 +6312,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
@@ -6321,27 +6336,27 @@
         <v>66</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
@@ -6365,19 +6380,19 @@
         <v>50</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -6385,7 +6400,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D38" s="1">
         <v>6</v>
@@ -6409,19 +6424,19 @@
         <v>44</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -6429,7 +6444,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D39" s="1">
         <v>6</v>
@@ -6453,27 +6468,27 @@
         <v>44</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C40" s="1" t="b">
         <v>1</v>
@@ -6500,19 +6515,19 @@
         <v>44</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -6520,7 +6535,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D41" s="1">
         <v>6</v>
@@ -6544,19 +6559,19 @@
         <v>44</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -6564,7 +6579,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D42" s="1">
         <v>6</v>
@@ -6588,19 +6603,19 @@
         <v>44</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -6608,7 +6623,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C43" s="1" t="b">
         <v>1</v>
@@ -6635,19 +6650,19 @@
         <v>46</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -6655,7 +6670,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C44" s="1" t="b">
         <v>1</v>
@@ -6682,27 +6697,27 @@
         <v>46</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D45" s="1">
         <v>6</v>
@@ -6726,19 +6741,19 @@
         <v>79</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>938</v>
-      </c>
       <c r="O45" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -6746,7 +6761,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
@@ -6770,27 +6785,27 @@
         <v>217</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D48" s="1">
         <v>6</v>
@@ -6814,27 +6829,27 @@
         <v>217</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D49" s="1">
         <v>6</v>
@@ -6858,19 +6873,19 @@
         <v>246</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -6878,7 +6893,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D50" s="1">
         <v>6</v>
@@ -6902,19 +6917,19 @@
         <v>189</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -6922,7 +6937,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D51" s="1">
         <v>6</v>
@@ -6946,19 +6961,19 @@
         <v>189</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -6966,7 +6981,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C52" s="1" t="b">
         <v>1</v>
@@ -6993,19 +7008,19 @@
         <v>189</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>96</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -7013,7 +7028,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D53" s="1">
         <v>6</v>
@@ -7037,19 +7052,19 @@
         <v>189</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>97</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -7057,7 +7072,7 @@
         <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C54" s="1" t="b">
         <v>1</v>
@@ -7084,19 +7099,19 @@
         <v>198</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -7104,7 +7119,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C55" s="1" t="b">
         <v>1</v>
@@ -7131,27 +7146,27 @@
         <v>198</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>99</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D56" s="1">
         <v>6</v>
@@ -7175,27 +7190,27 @@
         <v>284</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>956</v>
-      </c>
       <c r="O56" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C57" s="1" t="b">
         <v>1</v>
@@ -7222,19 +7237,19 @@
         <v>198</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>958</v>
+        <v>1084</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -7242,7 +7257,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D59" s="1">
         <v>6</v>
@@ -7266,19 +7281,19 @@
         <v>167</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>100</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -7286,7 +7301,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D60" s="1">
         <v>6</v>
@@ -7310,19 +7325,19 @@
         <v>188</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>101</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -7330,7 +7345,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C61" s="1" t="b">
         <v>1</v>
@@ -7357,19 +7372,19 @@
         <v>145</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>101</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -7377,7 +7392,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D62" s="1">
         <v>6</v>
@@ -7401,19 +7416,19 @@
         <v>145</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>102</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>965</v>
+        <v>1080</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -7421,7 +7436,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D63" s="1">
         <v>6</v>
@@ -7445,19 +7460,19 @@
         <v>145</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -7465,7 +7480,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D64" s="1">
         <v>6</v>
@@ -7489,19 +7504,19 @@
         <v>145</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>104</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -7509,7 +7524,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C65" s="1" t="b">
         <v>1</v>
@@ -7536,19 +7551,19 @@
         <v>152</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -7556,7 +7571,7 @@
         <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C66" s="1" t="b">
         <v>1</v>
@@ -7583,27 +7598,27 @@
         <v>152</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>73</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
@@ -7627,27 +7642,27 @@
         <v>232</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C68" s="1" t="b">
         <v>1</v>
@@ -7674,19 +7689,19 @@
         <v>152</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="O68" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -7701,2536 +7716,2536 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="14.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="20.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="19.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="20.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="19.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="P9" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F12" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="H12" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="F14" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="P14" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="P20" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="P21" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E23" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E26" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="3" t="b">
+      <c r="F26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E29" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="3" t="b">
+      <c r="F29" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="3" t="b">
+      <c r="F39" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="P9" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C10" s="3" t="b">
+      <c r="F59" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E62" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="P10" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="P19" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="P20" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="P21" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="3">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="3">
-        <v>3</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="3">
-        <v>3</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P52" s="3" t="s">
+      <c r="F62" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="3">
-        <v>5</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="3">
-        <v>5</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -10245,10 +10260,10 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="7" customWidth="1"/>
@@ -10257,43 +10272,44 @@
     <col min="5" max="6" width="9" style="8"/>
     <col min="7" max="7" width="76.25" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D2" s="8">
         <v>6</v>
@@ -10302,143 +10318,143 @@
         <v>210</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>700</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D3" s="8">
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>704</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>707</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D5" s="8">
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>711</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D6" s="8">
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>715</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D7" s="8">
         <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>719</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -10455,170 +10471,170 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D13" s="8">
         <v>6</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>735</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D14" s="8">
         <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D15" s="8">
         <v>6</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>726</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D16" s="8">
         <v>6</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>729</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D17" s="8">
         <v>6</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>732</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D18" s="8">
         <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>739</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -10633,163 +10649,163 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D23" s="8">
         <v>6</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>747</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D24" s="8">
         <v>6</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>742</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D25" s="8">
         <v>6</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D26" s="8">
         <v>6</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>750</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D27" s="8">
         <v>6</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>753</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D28" s="8">
         <v>6</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>756</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -10804,163 +10820,163 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D33" s="8">
         <v>6</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>759</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D34" s="8">
         <v>6</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D35" s="8">
         <v>6</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>764</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D36" s="8">
         <v>6</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>767</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D37" s="8">
         <v>6</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>770</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D38" s="8">
         <v>6</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>773</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -10975,163 +10991,163 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D43" s="8">
         <v>6</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>783</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D44" s="8">
         <v>6</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D45" s="8">
         <v>6</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>779</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D46" s="8">
         <v>6</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>786</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D47" s="8">
         <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>789</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D48" s="8">
         <v>6</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>792</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -11146,12 +11162,12 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -11159,158 +11175,158 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D54" s="8">
         <v>6</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>797</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D55" s="8">
         <v>6</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>794</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D56" s="8">
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>800</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D57" s="8">
         <v>6</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>803</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D58" s="8">
         <v>6</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>806</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D59" s="8">
         <v>6</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>809</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -11325,7 +11341,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/crusader_quest_DB_150604.xlsx
+++ b/data/crusader_quest_DB_150604.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1109">
   <si>
     <t>hero_thum</t>
   </si>
@@ -1073,9 +1073,6 @@
     <t>(보조형) : 자동 공격 5회마다 '돌개바람살'을 발사해, 타격 마다 공격력의 80%만큼 마법 피해를 주고, 자신이 이로운 효과를 받고 있으면 1회 더 발사합니다. 이 횟수는 바람살을 사용할 때 마다 2회씩 추가로 적용됩니다.</t>
   </si>
   <si>
-    <t>(보조형) : 다른 아군 용사가 3-체인을 사용한 후 향단을 부르면, 3-체인으로 발동됩니다. 3-체인 향단의 공격 도중 다른 아군 용사가 3-체인을 사용하면 3-체인보다 두 배 강한 엘리트 향단을 부릅니다. (3초에 1회 발동)</t>
-  </si>
-  <si>
     <t>(주력형) : 3-체인 사용 시 자기 최대 체력의 6%만큼 공격력이 증가되어 적용됩니다. 65% 확률로 3-체인을 최대 3회까지 다시 발사합니다. 추가 발사로는 SP가 회복되지 않습니다.</t>
   </si>
   <si>
@@ -1267,9 +1264,6 @@
     <t>구속된 악령</t>
   </si>
   <si>
-    <t>체인에 따라 자기 체력의 50%만큼 공격력을, (80/120/170)%만큼 체력을 가진 악령 하인을 소환합니다. 소환 이후에는 체인에 따라 (회복/광폭화/공격) 명령을 내릴 수 있습니다.</t>
-  </si>
-  <si>
     <t>lv1_desc</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3199,9 +3193,6 @@
     <t>복수의 바람</t>
   </si>
   <si>
-    <t>(보조형) : 복수의 바람 발동 후 1초 이내에 받은 모든 피해를 150%만큼, 이후 2초 동안 75%만큼을 무속성 피해로 반사합니다. 반사에 성공하면 공격력의 10%만큼 체력이 회복되고 공격력이 5초간 30% 증가합니다.</t>
-  </si>
-  <si>
     <t>심검</t>
   </si>
   <si>
@@ -3328,9 +3319,6 @@
     <t>가장 뒤의 적을 향해 체인 수에 따라 공격력의 (50/150/300)%만큼 마법 피해를 주는 얼음 화살을 발사해, 맞은 적을 끌어옵니다.</t>
   </si>
   <si>
-    <t>(보조형) : 다른 아군의 3-체인 이후 블록을 사용하면 맞은 적을 3초간 이동 불가 상태로 만듭니다. 이동 불가 상태의 적에게 아군의 3-체인 공격이 명중하면 2회에 한해 최대 체력의 2%만큼 무속성 추가 피해를 줍니다.</t>
-  </si>
-  <si>
     <t>img/hero/thum/niven.png</t>
   </si>
   <si>
@@ -3766,10 +3754,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(보조형) : 자신의 블록 사용 후 5초 동안, 자신이 공격받을 때마다 자기 공격력의 75%만큼 아군 전체를 회복시킵니다. 8회 회복 시, 즉시 적 전체를 2초간 기절시키고 자신의 블록을 하나 생성합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나이트위치 테레사</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3850,7 +3834,120 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(주력형) : 자신의 체인에 따라, 소환수에게 (5초간 체력 50% 회복 및 피해 대신 받음 / 다음 2회 스킬 공격력 30% 증가 / 공격력의 120%만큼 마법 피해) 행동을 명령합니다. 두 번째 명령은 피해 및 효과량이 50% 증가합니다.</t>
+    <t>체인 수에 따라 공격력의 (100/230/250)%만큼의 아군 용사 (하나/하나/전체)를 회복 시키며 체력이 가장 낮은 적군에게 5초간 유지되는 저주를 겁니다.</t>
+  </si>
+  <si>
+    <t>가장 뒤의 적을 향해 씨앗을 던져, 체인 수에 따라 공격력의 (50/120/250)%만큼 마법 피해를 주는 덩쿨을 소환합니다.</t>
+  </si>
+  <si>
+    <t>적에게 꽂혀 3초간 유지되는 작살탄을 발사해, 공격력의 100%만큼 물리피해를 주고 적의 명중률을 (15/25/35)% 감소시키는 효과를 부여합니다.</t>
+  </si>
+  <si>
+    <t>체인에 따라 자기 체력의 50%만큼 공격력을, 방어력/저항력의 100%만큼 방어력/저항력을, (80/120/170)%만큼 체력을 가진 악령 하인을 소환합니다. 소환 이후에는 체인에 따라(회복/광폭화/공격) 명령을 내릴 수 있습니다. 명령은 다른 아군의 체인에도 적용됩니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주력형) : 아군의 체인에 따라, 소환수에게 (체력 10% 회복 및 5초간 피해 대신 받음 / 다음 2회 스킬 공격력 30% 증가 / 공격력의 120%만큼 마법 피해) 행동을 명령합니다. 두 번째 명령은 피해 및 효과량이 50% 증가합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 다른 아군 용사가 3-체인을 사용한 후 향단을 부르면, 3-체인으로 발동됩니다. 3-체인 향단의 공격 도중 다른 아군 용사가 3-체인을 사용하면 3-체인보다 2배 강한 엘리트 향단을 부릅니다. 향단이와 엘리트 향단이의 공격이 명중할 때마다 자신 체력의 10%만큼 추가 물리를 피해줍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 복수의 바람 발동 후 1초 이내에 받은 모든 피해를 150%만큼, 이후 2초 동안 75%만큼을 무속성 피해로 반사합니다. 반사에 성공하면 자기 체력의 5%만큼 체력이 회복되고 공격력이 5초간 30% 증가합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 다른 아군의 3-체인 이후 블록을 사용하면 맞은 적을 3초간 이동 불가 상태로 만듭니다. 이동 불가 상태의 적에게 공격이 명중할 때마다 최대 체력의 2%만큼 마법 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 자신의 블록 사용 후 5초 동안 8회에 한해, 자신이 공격받을 때마다 자기 공격력의 60%만큼 아군 전체를 회복시킵니다. 8회 회복 시, 즉시 적 전체를 2초간 기절시키고 자신의 블록을 하나 생성합니다. (3초에 1회 발동)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍련의 데모나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥의 가시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 뒤의 적을 향해 지옥의 가시를 던져, 체인 수에 따라 공격력의 (50/120/250)%만큼 마법 피해를 주고 (1/2/3)만큼 자신에게 화염 중첩이 쌓입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주력형) : 지옥의 가시에 맞은 적은 5초간 화상에 걸려 공격력의 50%만큼 무속성 피해를 입습니다(이 피해는 중첩되지 않습니다). 자신에게 쌓인 화염 중첩이 3 이면 공격력의 350%만큼 마법 피해를 주고 중첩당 공격력의 50%만큼 무속성 피해를 주는 궁극의 지옥불 화살을 발사합니다.(3초당 한번 발동)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 수녀 멜리사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 치유</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 저주 받은 적군은 회복 스킬 효과를 받을 수 없습니다. 회복받은 아군이 저주받은 적군을 공격 시 자신의 공격력의 300% 마법피해를 주며 피해량의 10%만큼 아군 전체를 회복합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고결한 매그너스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연의 씨앗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 씨앗이 생긴 적군이 이로운 효과를 받거나 다른 아군이 3-체인을 사용할 때마다, 해당 적 근처에 자기 공격력의 300%만큼 마법 피해를 주는 나무 정령을 소환해 공격합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠 추적자 빌헬름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-666D 작살구속탄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조형) : 다른 아군이 사용한 블록 체인에 따라 공격력의 (75/100/150)%만큼 물리 피해를 주는 구속탄을 발사합니다. 작살탄이 꽂힌 적은 구속탄의 세 배의 피해를 받고 공격을 시도할 때마다 50%의 확률로 적 공격력의 100%만큼 피해를 입습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/thum/demona.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/block/demona_block.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/thum/magnus.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/block/magnus_block.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/thum/wilhelm.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/block/wilhelm_block.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/thum/melissa.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/block/melissa_block.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4845,10 +4942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -4868,7 +4965,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>280</v>
@@ -4880,10 +4977,10 @@
         <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>283</v>
@@ -4915,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -4939,7 +5036,7 @@
         <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
@@ -4948,18 +5045,18 @@
         <v>293</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -4983,19 +5080,19 @@
         <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5003,7 +5100,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -5027,7 +5124,7 @@
         <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>6</v>
@@ -5036,10 +5133,10 @@
         <v>294</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -5047,7 +5144,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -5071,7 +5168,7 @@
         <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
@@ -5080,10 +5177,10 @@
         <v>295</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -5091,7 +5188,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -5118,19 +5215,19 @@
         <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -5138,7 +5235,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -5162,19 +5259,19 @@
         <v>44</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -5182,7 +5279,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -5206,7 +5303,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -5215,10 +5312,10 @@
         <v>296</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -5226,7 +5323,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -5253,19 +5350,19 @@
         <v>44</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>877</v>
+        <v>1085</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -5273,7 +5370,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -5300,7 +5397,7 @@
         <v>46</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>76</v>
@@ -5312,15 +5409,15 @@
         <v>17</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
@@ -5344,27 +5441,27 @@
         <v>44</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>883</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>1</v>
@@ -5391,19 +5488,19 @@
         <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -5411,7 +5508,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -5435,7 +5532,7 @@
         <v>284</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
@@ -5444,18 +5541,18 @@
         <v>298</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -5479,19 +5576,19 @@
         <v>284</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1063</v>
+        <v>1087</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -5499,7 +5596,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
@@ -5523,19 +5620,19 @@
         <v>321</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -5543,7 +5640,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -5567,7 +5664,7 @@
         <v>247</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>24</v>
@@ -5576,10 +5673,10 @@
         <v>299</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -5587,7 +5684,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
@@ -5611,19 +5708,19 @@
         <v>247</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -5631,7 +5728,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
@@ -5655,19 +5752,19 @@
         <v>247</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -5675,7 +5772,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>1</v>
@@ -5702,19 +5799,19 @@
         <v>247</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -5722,7 +5819,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>1</v>
@@ -5749,7 +5846,7 @@
         <v>148</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>77</v>
@@ -5758,10 +5855,10 @@
         <v>300</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -5769,7 +5866,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>1</v>
@@ -5796,7 +5893,7 @@
         <v>260</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>78</v>
@@ -5808,15 +5905,15 @@
         <v>33</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -5840,27 +5937,27 @@
         <v>432</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="O23" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>1</v>
@@ -5887,19 +5984,19 @@
         <v>247</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>859</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -5907,7 +6004,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
@@ -5931,30 +6028,27 @@
         <v>167</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>1088</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C27" s="1" t="b">
-        <v>1</v>
+        <v>865</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
@@ -5963,42 +6057,45 @@
         <v>35</v>
       </c>
       <c r="F27" s="1">
-        <v>583</v>
+        <v>689</v>
       </c>
       <c r="G27" s="1">
-        <v>4428</v>
+        <v>4488</v>
       </c>
       <c r="H27" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I27" s="1">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="J27" s="1">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>906</v>
+        <v>1089</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>80</v>
+        <v>1090</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>907</v>
+        <v>1091</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1003</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>6</v>
@@ -6007,42 +6104,42 @@
         <v>35</v>
       </c>
       <c r="F28" s="1">
-        <v>419</v>
+        <v>583</v>
       </c>
       <c r="G28" s="1">
-        <v>5644</v>
+        <v>4428</v>
       </c>
       <c r="H28" s="1">
         <v>15</v>
       </c>
       <c r="I28" s="1">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="J28" s="1">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
@@ -6051,13 +6148,13 @@
         <v>35</v>
       </c>
       <c r="F29" s="1">
-        <v>599</v>
+        <v>419</v>
       </c>
       <c r="G29" s="1">
-        <v>3609</v>
+        <v>5644</v>
       </c>
       <c r="H29" s="1">
-        <v>26.25</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1">
         <v>145</v>
@@ -6066,27 +6163,27 @@
         <v>145</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -6095,13 +6192,13 @@
         <v>35</v>
       </c>
       <c r="F30" s="1">
-        <v>779</v>
+        <v>599</v>
       </c>
       <c r="G30" s="1">
-        <v>3040</v>
+        <v>3609</v>
       </c>
       <c r="H30" s="1">
-        <v>15</v>
+        <v>26.25</v>
       </c>
       <c r="I30" s="1">
         <v>145</v>
@@ -6110,27 +6207,27 @@
         <v>145</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -6139,13 +6236,13 @@
         <v>35</v>
       </c>
       <c r="F31" s="1">
-        <v>599</v>
+        <v>779</v>
       </c>
       <c r="G31" s="1">
-        <v>3609</v>
+        <v>3040</v>
       </c>
       <c r="H31" s="1">
-        <v>26.25</v>
+        <v>15</v>
       </c>
       <c r="I31" s="1">
         <v>145</v>
@@ -6154,30 +6251,27 @@
         <v>145</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>302</v>
+        <v>910</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C32" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
@@ -6186,42 +6280,42 @@
         <v>35</v>
       </c>
       <c r="F32" s="1">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="G32" s="1">
-        <v>4558</v>
+        <v>3609</v>
       </c>
       <c r="H32" s="1">
-        <v>15.75</v>
+        <v>26.25</v>
       </c>
       <c r="I32" s="1">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J32" s="1">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>1</v>
@@ -6233,10 +6327,10 @@
         <v>35</v>
       </c>
       <c r="F33" s="1">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="G33" s="1">
-        <v>5242</v>
+        <v>4558</v>
       </c>
       <c r="H33" s="1">
         <v>15.75</v>
@@ -6248,27 +6342,30 @@
         <v>152</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>43</v>
+        <v>1008</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>322</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>917</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -6277,130 +6374,133 @@
         <v>35</v>
       </c>
       <c r="F34" s="1">
-        <v>659</v>
+        <v>475</v>
       </c>
       <c r="G34" s="1">
-        <v>3907</v>
+        <v>5242</v>
       </c>
       <c r="H34" s="1">
         <v>15.75</v>
       </c>
       <c r="I34" s="1">
+        <v>152</v>
+      </c>
+      <c r="J34" s="1">
+        <v>152</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="1">
+        <v>659</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3907</v>
+      </c>
+      <c r="H35" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="I35" s="1">
         <v>145</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J35" s="1">
         <v>145</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>334</v>
+      <c r="K35" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>1095</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>867</v>
+        <v>853</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1">
-        <v>813</v>
+        <v>755</v>
       </c>
       <c r="G36" s="1">
-        <v>4074</v>
+        <v>3374</v>
       </c>
       <c r="H36" s="1">
-        <v>23</v>
+        <v>15.75</v>
       </c>
       <c r="I36" s="1">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="J36" s="1">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>922</v>
+        <v>1096</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>87</v>
+        <v>1080</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>923</v>
+        <v>1097</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1014</v>
+        <v>1103</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1">
-        <v>910</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3595</v>
-      </c>
-      <c r="H37" s="1">
-        <v>23</v>
-      </c>
-      <c r="I37" s="1">
-        <v>217</v>
-      </c>
-      <c r="J37" s="1">
-        <v>50</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D38" s="1">
         <v>6</v>
@@ -6409,42 +6509,42 @@
         <v>45</v>
       </c>
       <c r="F38" s="1">
-        <v>504</v>
+        <v>813</v>
       </c>
       <c r="G38" s="1">
-        <v>4515</v>
+        <v>4074</v>
       </c>
       <c r="H38" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I38" s="1">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="J38" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>305</v>
+        <v>919</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>1059</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D39" s="1">
         <v>6</v>
@@ -6453,45 +6553,42 @@
         <v>45</v>
       </c>
       <c r="F39" s="1">
-        <v>720</v>
+        <v>910</v>
       </c>
       <c r="G39" s="1">
-        <v>3473</v>
+        <v>3595</v>
       </c>
       <c r="H39" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I39" s="1">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="J39" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>925</v>
+        <v>1060</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>89</v>
+        <v>1061</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>306</v>
+        <v>1062</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>1018</v>
+        <v>1071</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>1019</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>926</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C40" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -6500,13 +6597,13 @@
         <v>45</v>
       </c>
       <c r="F40" s="1">
-        <v>720</v>
+        <v>504</v>
       </c>
       <c r="G40" s="1">
-        <v>2691</v>
+        <v>4515</v>
       </c>
       <c r="H40" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I40" s="1">
         <v>189</v>
@@ -6515,27 +6612,27 @@
         <v>44</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>971</v>
+        <v>1012</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D41" s="1">
         <v>6</v>
@@ -6544,10 +6641,10 @@
         <v>45</v>
       </c>
       <c r="F41" s="1">
-        <v>935</v>
+        <v>720</v>
       </c>
       <c r="G41" s="1">
-        <v>2431</v>
+        <v>3473</v>
       </c>
       <c r="H41" s="1">
         <v>20</v>
@@ -6559,27 +6656,30 @@
         <v>44</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>928</v>
+        <v>305</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>922</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>6</v>
@@ -6603,30 +6703,27 @@
         <v>44</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1023</v>
+        <v>967</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C43" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D43" s="1">
         <v>6</v>
@@ -6635,45 +6732,42 @@
         <v>45</v>
       </c>
       <c r="F43" s="1">
-        <v>756</v>
+        <v>935</v>
       </c>
       <c r="G43" s="1">
-        <v>3647</v>
+        <v>2431</v>
       </c>
       <c r="H43" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" s="1">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J43" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>309</v>
+        <v>924</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C44" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D44" s="1">
         <v>6</v>
@@ -6682,42 +6776,45 @@
         <v>45</v>
       </c>
       <c r="F44" s="1">
-        <v>756</v>
+        <v>720</v>
       </c>
       <c r="G44" s="1">
-        <v>3190</v>
+        <v>2691</v>
       </c>
       <c r="H44" s="1">
-        <v>28.35</v>
+        <v>35</v>
       </c>
       <c r="I44" s="1">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J44" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>852</v>
+        <v>91</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>853</v>
+        <v>307</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>53</v>
+        <v>1019</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>323</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>932</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>6</v>
@@ -6726,174 +6823,180 @@
         <v>45</v>
       </c>
       <c r="F45" s="1">
-        <v>651</v>
+        <v>756</v>
       </c>
       <c r="G45" s="1">
-        <v>3543</v>
+        <v>3647</v>
       </c>
       <c r="H45" s="1">
         <v>21</v>
       </c>
       <c r="I45" s="1">
-        <v>340</v>
+        <v>198</v>
       </c>
       <c r="J45" s="1">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>934</v>
+        <v>51</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>935</v>
+        <v>308</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>936</v>
+        <v>1021</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>335</v>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <v>756</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3190</v>
+      </c>
+      <c r="H46" s="1">
+        <v>28.35</v>
+      </c>
+      <c r="I46" s="1">
+        <v>198</v>
+      </c>
+      <c r="J46" s="1">
+        <v>46</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>928</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F47" s="1">
-        <v>992</v>
+        <v>651</v>
       </c>
       <c r="G47" s="1">
-        <v>3195</v>
+        <v>3543</v>
       </c>
       <c r="H47" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="1">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="J47" s="1">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>930</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>310</v>
+        <v>931</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>1027</v>
+        <v>932</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>1028</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1068</v>
+        <v>1098</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>867</v>
+        <v>853</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F48" s="1">
-        <v>992</v>
+        <v>869</v>
       </c>
       <c r="G48" s="1">
-        <v>2716</v>
+        <v>2890</v>
       </c>
       <c r="H48" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I48" s="1">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="J48" s="1">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1078</v>
+        <v>1105</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="D49" s="1">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="1">
-        <v>850</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2834</v>
-      </c>
-      <c r="H49" s="1">
-        <v>20</v>
-      </c>
-      <c r="I49" s="1">
-        <v>57</v>
-      </c>
-      <c r="J49" s="1">
-        <v>246</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>1030</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D50" s="1">
         <v>6</v>
@@ -6902,42 +7005,42 @@
         <v>55</v>
       </c>
       <c r="F50" s="1">
-        <v>604</v>
+        <v>992</v>
       </c>
       <c r="G50" s="1">
-        <v>3611</v>
+        <v>3195</v>
       </c>
       <c r="H50" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I50" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J50" s="1">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>942</v>
+        <v>309</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>1063</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D51" s="1">
         <v>6</v>
@@ -6946,45 +7049,42 @@
         <v>55</v>
       </c>
       <c r="F51" s="1">
-        <v>863</v>
+        <v>992</v>
       </c>
       <c r="G51" s="1">
-        <v>2153</v>
+        <v>2716</v>
       </c>
       <c r="H51" s="1">
         <v>35</v>
       </c>
       <c r="I51" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J51" s="1">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>943</v>
+        <v>1064</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>95</v>
+        <v>1065</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>944</v>
+        <v>1066</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>1033</v>
+        <v>1073</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>1034</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>934</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C52" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D52" s="1">
         <v>6</v>
@@ -6993,42 +7093,42 @@
         <v>55</v>
       </c>
       <c r="F52" s="1">
-        <v>1122</v>
+        <v>850</v>
       </c>
       <c r="G52" s="1">
-        <v>1945</v>
+        <v>2834</v>
       </c>
       <c r="H52" s="1">
         <v>20</v>
       </c>
       <c r="I52" s="1">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J52" s="1">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>311</v>
+        <v>936</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D53" s="1">
         <v>6</v>
@@ -7037,13 +7137,13 @@
         <v>55</v>
       </c>
       <c r="F53" s="1">
-        <v>863</v>
+        <v>604</v>
       </c>
       <c r="G53" s="1">
-        <v>2153</v>
+        <v>3611</v>
       </c>
       <c r="H53" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I53" s="1">
         <v>44</v>
@@ -7052,30 +7152,27 @@
         <v>189</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C54" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D54" s="1">
         <v>6</v>
@@ -7084,42 +7181,42 @@
         <v>55</v>
       </c>
       <c r="F54" s="1">
-        <v>906</v>
+        <v>863</v>
       </c>
       <c r="G54" s="1">
-        <v>2917</v>
+        <v>2153</v>
       </c>
       <c r="H54" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I54" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J54" s="1">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>312</v>
+        <v>940</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C55" s="1" t="b">
         <v>1</v>
@@ -7131,42 +7228,42 @@
         <v>55</v>
       </c>
       <c r="F55" s="1">
-        <v>1042</v>
+        <v>1122</v>
       </c>
       <c r="G55" s="1">
-        <v>2312</v>
+        <v>1945</v>
       </c>
       <c r="H55" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J55" s="1">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>949</v>
+        <v>310</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>62</v>
+        <v>1031</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>324</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>950</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D56" s="1">
         <v>6</v>
@@ -7175,42 +7272,42 @@
         <v>55</v>
       </c>
       <c r="F56" s="1">
-        <v>713</v>
+        <v>863</v>
       </c>
       <c r="G56" s="1">
-        <v>2834</v>
+        <v>2153</v>
       </c>
       <c r="H56" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I56" s="1">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J56" s="1">
-        <v>284</v>
+        <v>189</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>952</v>
+        <v>97</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>1083</v>
+        <v>942</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>953</v>
+        <v>1033</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>336</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>954</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C57" s="1" t="b">
         <v>1</v>
@@ -7222,10 +7319,10 @@
         <v>55</v>
       </c>
       <c r="F57" s="1">
-        <v>575</v>
+        <v>906</v>
       </c>
       <c r="G57" s="1">
-        <v>3792</v>
+        <v>2917</v>
       </c>
       <c r="H57" s="1">
         <v>21</v>
@@ -7237,162 +7334,165 @@
         <v>198</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>361</v>
+        <v>943</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>362</v>
+        <v>98</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>1084</v>
+        <v>311</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>955</v>
+        <v>1035</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>956</v>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1042</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2312</v>
+      </c>
+      <c r="H58" s="1">
+        <v>21</v>
+      </c>
+      <c r="I58" s="1">
+        <v>46</v>
+      </c>
+      <c r="J58" s="1">
+        <v>198</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>946</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D59" s="1">
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1">
-        <v>401</v>
+        <v>713</v>
       </c>
       <c r="G59" s="1">
-        <v>6919</v>
+        <v>2834</v>
       </c>
       <c r="H59" s="1">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="I59" s="1">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="J59" s="1">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>100</v>
+        <v>948</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>958</v>
+        <v>1078</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1041</v>
+        <v>949</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>1042</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>950</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
+      </c>
+      <c r="C60" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F60" s="1">
-        <v>482</v>
+        <v>575</v>
       </c>
       <c r="G60" s="1">
-        <v>4720</v>
+        <v>3792</v>
       </c>
       <c r="H60" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I60" s="1">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="J60" s="1">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>959</v>
+        <v>360</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>101</v>
+        <v>1082</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>313</v>
+        <v>1083</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>1043</v>
+        <v>951</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>6</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="1">
-        <v>498</v>
-      </c>
-      <c r="G61" s="1">
-        <v>4628</v>
-      </c>
-      <c r="H61" s="1">
-        <v>10</v>
-      </c>
-      <c r="I61" s="1">
-        <v>145</v>
-      </c>
-      <c r="J61" s="1">
-        <v>145</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>1046</v>
+        <v>952</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D62" s="1">
         <v>6</v>
@@ -7401,42 +7501,42 @@
         <v>64</v>
       </c>
       <c r="F62" s="1">
-        <v>498</v>
+        <v>401</v>
       </c>
       <c r="G62" s="1">
-        <v>4107</v>
+        <v>6919</v>
       </c>
       <c r="H62" s="1">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="I62" s="1">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="J62" s="1">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>1080</v>
+        <v>954</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>1092</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D63" s="1">
         <v>6</v>
@@ -7445,42 +7545,42 @@
         <v>64</v>
       </c>
       <c r="F63" s="1">
-        <v>647</v>
+        <v>703</v>
       </c>
       <c r="G63" s="1">
-        <v>3240</v>
+        <v>3256</v>
       </c>
       <c r="H63" s="1">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I63" s="1">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="J63" s="1">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>961</v>
+        <v>1093</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>103</v>
+        <v>1079</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>962</v>
+        <v>1094</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1049</v>
+        <v>1107</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1050</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D64" s="1">
         <v>6</v>
@@ -7489,42 +7589,42 @@
         <v>64</v>
       </c>
       <c r="F64" s="1">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="G64" s="1">
-        <v>4107</v>
+        <v>4720</v>
       </c>
       <c r="H64" s="1">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="I64" s="1">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="J64" s="1">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C65" s="1" t="b">
         <v>1</v>
@@ -7536,45 +7636,42 @@
         <v>64</v>
       </c>
       <c r="F65" s="1">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="G65" s="1">
-        <v>4860</v>
+        <v>4628</v>
       </c>
       <c r="H65" s="1">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I65" s="1">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J65" s="1">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C66" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D66" s="1">
         <v>6</v>
@@ -7583,42 +7680,42 @@
         <v>64</v>
       </c>
       <c r="F66" s="1">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="G66" s="1">
-        <v>5588</v>
+        <v>4107</v>
       </c>
       <c r="H66" s="1">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="I66" s="1">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J66" s="1">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>317</v>
+        <v>1075</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>74</v>
+        <v>1043</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>325</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>966</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
@@ -7627,45 +7724,42 @@
         <v>64</v>
       </c>
       <c r="F67" s="1">
-        <v>449</v>
+        <v>647</v>
       </c>
       <c r="G67" s="1">
-        <v>4720</v>
+        <v>3240</v>
       </c>
       <c r="H67" s="1">
         <v>10</v>
       </c>
       <c r="I67" s="1">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="J67" s="1">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>968</v>
+        <v>103</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>970</v>
+        <v>1045</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>337</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>860</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C68" s="1" t="b">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="D68" s="1">
         <v>6</v>
@@ -7674,34 +7768,219 @@
         <v>64</v>
       </c>
       <c r="F68" s="1">
+        <v>498</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4107</v>
+      </c>
+      <c r="H68" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>145</v>
+      </c>
+      <c r="J68" s="1">
+        <v>145</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="1">
+        <v>523</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4860</v>
+      </c>
+      <c r="H69" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="I69" s="1">
+        <v>152</v>
+      </c>
+      <c r="J69" s="1">
+        <v>152</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="1">
+        <v>395</v>
+      </c>
+      <c r="G70" s="1">
+        <v>5588</v>
+      </c>
+      <c r="H70" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>152</v>
+      </c>
+      <c r="J70" s="1">
+        <v>152</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="1">
+        <v>449</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4720</v>
+      </c>
+      <c r="H71" s="1">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1">
+        <v>232</v>
+      </c>
+      <c r="J71" s="1">
+        <v>232</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="1">
         <v>353</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G72" s="1">
         <v>5977</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H72" s="1">
         <v>10.5</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I72" s="1">
         <v>152</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J72" s="1">
         <v>152</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K72" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -7747,37 +8026,37 @@
         <v>291</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>227</v>
@@ -7797,34 +8076,34 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>172</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>228</v>
@@ -7844,34 +8123,34 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>229</v>
@@ -7891,34 +8170,34 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>176</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>230</v>
@@ -7938,34 +8217,34 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>178</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>231</v>
@@ -7985,34 +8264,34 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>180</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>232</v>
@@ -8035,22 +8314,22 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>182</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>233</v>
@@ -8073,22 +8352,22 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>184</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>234</v>
@@ -8111,22 +8390,22 @@
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>186</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -8139,13 +8418,13 @@
         <v>170</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -8155,15 +8434,15 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="P10" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -8190,34 +8469,34 @@
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>190</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>236</v>
@@ -8237,34 +8516,34 @@
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>192</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>237</v>
@@ -8284,34 +8563,34 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>433</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>194</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>238</v>
@@ -8331,34 +8610,34 @@
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>197</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>239</v>
@@ -8378,34 +8657,34 @@
         <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="L16" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>199</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>240</v>
@@ -8425,34 +8704,34 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>201</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>241</v>
@@ -8463,43 +8742,43 @@
         <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>467</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>242</v>
@@ -8522,22 +8801,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>203</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -8562,22 +8841,22 @@
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>475</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>206</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -8602,27 +8881,27 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>208</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="P21" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -8649,34 +8928,34 @@
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>245</v>
@@ -8696,34 +8975,34 @@
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>157</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>246</v>
@@ -8743,34 +9022,34 @@
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>159</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>247</v>
@@ -8790,34 +9069,34 @@
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>161</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>248</v>
@@ -8837,34 +9116,34 @@
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>249</v>
@@ -8887,22 +9166,22 @@
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>165</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>250</v>
@@ -8925,22 +9204,22 @@
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>251</v>
@@ -8963,22 +9242,22 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>169</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>252</v>
@@ -8998,34 +9277,34 @@
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>211</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>253</v>
@@ -9045,34 +9324,34 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>213</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>254</v>
@@ -9092,34 +9371,34 @@
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>215</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>255</v>
@@ -9130,7 +9409,7 @@
         <v>209</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>113</v>
@@ -9139,34 +9418,34 @@
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="M35" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>216</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>256</v>
@@ -9186,34 +9465,34 @@
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>218</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>257</v>
@@ -9233,34 +9512,34 @@
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>220</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>258</v>
@@ -9271,43 +9550,43 @@
         <v>209</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>259</v>
@@ -9330,22 +9609,22 @@
         <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>260</v>
@@ -9368,22 +9647,22 @@
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="I40" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>224</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>261</v>
@@ -9406,25 +9685,25 @@
         <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>226</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -9441,34 +9720,34 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="K43" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>132</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>262</v>
@@ -9488,34 +9767,34 @@
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="M44" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>134</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>263</v>
@@ -9535,34 +9814,34 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="M45" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>264</v>
@@ -9582,34 +9861,34 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="K46" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>139</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>265</v>
@@ -9629,34 +9908,34 @@
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>142</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>266</v>
@@ -9667,43 +9946,43 @@
         <v>129</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="K48" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="N48" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>267</v>
@@ -9726,22 +10005,22 @@
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="I49" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>144</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>268</v>
@@ -9764,22 +10043,22 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>630</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>146</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>269</v>
@@ -9802,22 +10081,22 @@
         <v>3</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>148</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>270</v>
@@ -9840,25 +10119,25 @@
         <v>3</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="I52" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>151</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -9875,34 +10154,34 @@
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="K54" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>107</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>271</v>
@@ -9922,34 +10201,34 @@
         <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>111</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>272</v>
@@ -9969,34 +10248,34 @@
         <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>114</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>273</v>
@@ -10016,34 +10295,34 @@
         <v>5</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>117</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>274</v>
@@ -10063,34 +10342,34 @@
         <v>5</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>119</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>275</v>
@@ -10113,22 +10392,22 @@
         <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>276</v>
@@ -10151,22 +10430,22 @@
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="I60" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>277</v>
@@ -10189,22 +10468,22 @@
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>685</v>
-      </c>
       <c r="I61" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>128</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>278</v>
@@ -10215,37 +10494,37 @@
         <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C62" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="I62" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -10277,39 +10556,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D2" s="8">
         <v>6</v>
@@ -10318,143 +10597,143 @@
         <v>210</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D3" s="8">
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>703</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D5" s="8">
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>710</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D6" s="8">
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>714</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D7" s="8">
         <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>718</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -10471,170 +10750,170 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D13" s="8">
         <v>6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D14" s="8">
         <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>722</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D15" s="8">
         <v>6</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D16" s="8">
         <v>6</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D17" s="8">
         <v>6</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D18" s="8">
         <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>738</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -10649,163 +10928,163 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D23" s="8">
         <v>6</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D24" s="8">
         <v>6</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D25" s="8">
         <v>6</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D26" s="8">
         <v>6</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D27" s="8">
         <v>6</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D28" s="8">
         <v>6</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -10820,163 +11099,163 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D33" s="8">
         <v>6</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D34" s="8">
         <v>6</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D35" s="8">
         <v>6</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D36" s="8">
         <v>6</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D37" s="8">
         <v>6</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D38" s="8">
         <v>6</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -10991,163 +11270,163 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D43" s="8">
         <v>6</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>782</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D44" s="8">
         <v>6</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D45" s="8">
         <v>6</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D46" s="8">
         <v>6</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D47" s="8">
         <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D48" s="8">
         <v>6</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -11162,12 +11441,12 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -11175,158 +11454,158 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D54" s="8">
         <v>6</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D55" s="8">
         <v>6</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D56" s="8">
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D57" s="8">
         <v>6</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D58" s="8">
         <v>6</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D59" s="8">
         <v>6</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -11341,7 +11620,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/crusader_quest_DB_150604.xlsx
+++ b/data/crusader_quest_DB_150604.xlsx
@@ -3626,9 +3626,6 @@
     <t>img/hero/block/69.png</t>
   </si>
   <si>
-    <t>img/hero/thum/141.png</t>
-  </si>
-  <si>
     <t>img/hero/block/72.png</t>
   </si>
   <si>
@@ -3716,9 +3713,6 @@
     <t>img/hero/block/108.png</t>
   </si>
   <si>
-    <t>img/hero/thum/263.png</t>
-  </si>
-  <si>
     <t>img/hero/block/131.png</t>
   </si>
   <si>
@@ -3948,6 +3942,14 @@
   </si>
   <si>
     <t>img/hero/block/melissa_block.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/thum/vincent.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/hero/thum/himiko.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4944,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -5053,10 +5055,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -5080,19 +5082,19 @@
         <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5356,7 +5358,7 @@
         <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>980</v>
@@ -5549,7 +5551,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>865</v>
@@ -5576,19 +5578,19 @@
         <v>284</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -5758,7 +5760,7 @@
         <v>28</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>990</v>
@@ -6034,7 +6036,7 @@
         <v>79</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>996</v>
@@ -6045,7 +6047,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>865</v>
@@ -6072,19 +6074,19 @@
         <v>167</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>1091</v>
-      </c>
       <c r="N27" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -6395,7 +6397,7 @@
         <v>86</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>43</v>
@@ -6439,7 +6441,7 @@
         <v>916</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>917</v>
@@ -6450,7 +6452,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>853</v>
@@ -6480,19 +6482,19 @@
         <v>152</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -6541,7 +6543,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>865</v>
@@ -6568,19 +6570,19 @@
         <v>50</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="N39" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -6800,10 +6802,10 @@
         <v>307</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -6847,10 +6849,10 @@
         <v>308</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -6946,7 +6948,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>853</v>
@@ -6976,19 +6978,19 @@
         <v>45</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -7029,15 +7031,15 @@
         <v>309</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>865</v>
@@ -7064,19 +7066,19 @@
         <v>217</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>1066</v>
-      </c>
       <c r="N51" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -7117,10 +7119,10 @@
         <v>936</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -7161,10 +7163,10 @@
         <v>938</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -7205,10 +7207,10 @@
         <v>940</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -7252,10 +7254,10 @@
         <v>310</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -7296,10 +7298,10 @@
         <v>942</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -7343,10 +7345,10 @@
         <v>311</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -7431,7 +7433,7 @@
         <v>948</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>949</v>
@@ -7475,10 +7477,10 @@
         <v>360</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>951</v>
@@ -7525,15 +7527,15 @@
         <v>954</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>865</v>
@@ -7560,19 +7562,19 @@
         <v>250</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -7613,10 +7615,10 @@
         <v>312</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -7660,10 +7662,10 @@
         <v>313</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -7701,13 +7703,13 @@
         <v>102</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -7748,10 +7750,10 @@
         <v>958</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -7792,10 +7794,10 @@
         <v>314</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -7839,10 +7841,10 @@
         <v>315</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
